--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.120900000000001</v>
+        <v>8.8626</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.822299999999997</v>
+        <v>4.872299999999997</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.8206</v>
+        <v>-13.96329999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.58389999999999</v>
+        <v>-14.61079999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,13 +703,13 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>7.850899999999996</v>
+        <v>7.502699999999996</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.564399999999999</v>
+        <v>-8.636500000000003</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.227099999999997</v>
+        <v>-8.160999999999996</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.46410000000001</v>
+        <v>-12.3082</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.6592</v>
+        <v>-12.79540000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.56890000000001</v>
+        <v>-12.3962</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.739100000000002</v>
+        <v>5.762299999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.026100000000004</v>
+        <v>5.182900000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.622499999999993</v>
+        <v>7.193599999999995</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.45200000000002</v>
+        <v>-11.37960000000002</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.647899999999995</v>
+        <v>-8.543799999999994</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.970899999999999</v>
+        <v>9.017099999999994</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.11059999999999</v>
+        <v>-13.08549999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.7417</v>
+        <v>-13.66909999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.436000000000002</v>
+        <v>-8.3779</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.87719999999999</v>
+        <v>-13.86419999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.306799999999996</v>
+        <v>-8.148400000000002</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.8616</v>
+        <v>-11.7305</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.370899999999999</v>
+        <v>5.3568</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.968099999999996</v>
+        <v>5.013899999999998</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.591600000000001</v>
+        <v>5.965300000000003</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.6801</v>
+        <v>-11.46630000000001</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.5738</v>
+        <v>-11.247</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.68480000000001</v>
+        <v>-11.4346</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.3178</v>
+        <v>-12.6186</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.36740000000001</v>
+        <v>-11.4385</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.276499999999995</v>
+        <v>-8.0891</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.6126</v>
+        <v>-11.9066</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.667099999999998</v>
+        <v>-8.680599999999998</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.873399999999999</v>
+        <v>5.915599999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
